--- a/Чек-лист для (web-камера + jetson).xlsx
+++ b/Чек-лист для (web-камера + jetson).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A5EDA-76E3-44CC-8AAB-349276753687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA82BAE4-5E2B-4A49-A6BB-FD48787D79A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{126295D2-B400-4284-97D2-093116D5AAB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="181">
   <si>
     <t>Название тест-кейса</t>
   </si>
@@ -96,81 +96,42 @@
     <t>ID тест кейса</t>
   </si>
   <si>
-    <t>CIR-W0001</t>
-  </si>
-  <si>
-    <t>CIR-W0002</t>
-  </si>
-  <si>
-    <t>CIR-W0003</t>
-  </si>
-  <si>
-    <t>CIR-W0004</t>
-  </si>
-  <si>
     <t>Появление окна с описанием ошибки, когда отключена камера</t>
   </si>
   <si>
     <t>Проверить что появляется окно с описанием ошибки, когда отключена камера, при запуске «Система Каскад»</t>
   </si>
   <si>
-    <t>Проверить реинициализацию «Зритель-Каскад» при выходе из «Система Каскад»</t>
-  </si>
-  <si>
     <t>Проверить работу «Зритель-Контраст» в АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0005</t>
-  </si>
-  <si>
     <t>Появление окна с описанием ошибки, когда нет связи с сервисом</t>
   </si>
   <si>
     <t>Проверить что появляется окно с описанием ошибки, когда нет связи с сервисом, при запуске «Система Каскад»</t>
   </si>
   <si>
-    <t>CIR-W0006</t>
-  </si>
-  <si>
     <t>Проверить что видеопоток в окне «Видеокамера» появился</t>
   </si>
   <si>
     <t>Проверить появление захваченного кадра в окне «Видеокамера»</t>
   </si>
   <si>
-    <t>CIR-W0007</t>
-  </si>
-  <si>
-    <t>CIR-W0008</t>
-  </si>
-  <si>
     <t>Отработка таймаута в АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверить что по истечению 10 секунд в окне «Видеокамера» ничего не будет </t>
   </si>
   <si>
-    <t>CIR-W0010</t>
-  </si>
-  <si>
     <t>Проверить вызов формы двойным нажатием по окну «Видеокамера» с захваченным кадром в нем</t>
   </si>
   <si>
-    <t>CIR-W0012</t>
-  </si>
-  <si>
     <t>Вызов формы захвата во время захвата в АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить что форма захвата не откроется во время захвата в АРМ ОПК двойным нажатием по окну «Видеокамера» </t>
   </si>
   <si>
-    <t>CIR-W0016</t>
-  </si>
-  <si>
     <t>Захват с одновременным сканированием документа с ИС</t>
   </si>
   <si>
@@ -180,165 +141,102 @@
     <t>Проверить захват кадра, когда лицо находится на границе окна «Видеокамера», то есть лицо полностью не попадает в поле зрения видеокамеры, в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>Работа «Зритель-контраст» в АРМ ОПК</t>
-  </si>
-  <si>
     <t>Захват кадра в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0017</t>
-  </si>
-  <si>
     <t>Захват с одновременным сканированием документа без ИС</t>
   </si>
   <si>
     <t>Произвести захват кадра во время сканирования документа без интегральной микросхемы, в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Отсутствие функции удаления фотографии при нажатии по кнопке «Изменить» </t>
   </si>
   <si>
     <t>Проверить что фотография из окна «Видеокамера» не удалилась после нажатия по кнопке «Изменить»</t>
   </si>
   <si>
-    <t>CIR-W0027</t>
-  </si>
-  <si>
     <t>Захват кадра на расстоянии в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить захват на расстоянии около двух метров от камеры </t>
   </si>
   <si>
-    <t>CIR-W0028</t>
-  </si>
-  <si>
     <t>Захват кадра на большом расстоянии в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить захват на расстоянии более двух метров от камеры </t>
   </si>
   <si>
-    <t>CIR-W0029</t>
-  </si>
-  <si>
     <t>Захват кадра с несколькими лицами, в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t>Проверить захват с несколькими пассажирами в поле зрения видеокамеры</t>
   </si>
   <si>
-    <t>CIR-W0041</t>
-  </si>
-  <si>
     <t>Проверить захват кадр в последние секунды перед окончанием таймаута, в главной форме АРМ ОПК</t>
   </si>
   <si>
     <t>Проверить форму захвата</t>
   </si>
   <si>
-    <t>CIR-W0011</t>
-  </si>
-  <si>
     <t>Вызов формы захвата без захваченного кадра</t>
   </si>
   <si>
     <t>Проверить вызов формы двойным нажатием по окну «Видеокамера» без захваченным кадром в нем</t>
   </si>
   <si>
-    <t>CIR-W0013</t>
-  </si>
-  <si>
     <t>Нажатие по кнопке «Старт F5» в форме захвата</t>
   </si>
   <si>
     <t>Проверить что после нажатия на кнопку «Старт F5» в форме захвата появиться видеопоток</t>
   </si>
   <si>
-    <t>CIR-W0014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нажатие по кнопке «Стоп F6» в форме захвата </t>
   </si>
   <si>
     <t xml:space="preserve">Проверить что после нажатия по кнопе «Стоп F6» будет произведен захват </t>
   </si>
   <si>
-    <t>CIR-W0015</t>
-  </si>
-  <si>
     <t>Проверить что после нажатия по кнопе «Закрыть Esc» форма захвата закроется</t>
   </si>
   <si>
     <t>Нажатие по кнопке «Закрыть Esc» в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0030</t>
-  </si>
-  <si>
     <t>Захват кадра с несколькими лицами в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0031</t>
-  </si>
-  <si>
     <t>Проверить выбор других полученных захваченных кадров в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0032</t>
-  </si>
-  <si>
     <t>Захват кадра на границе области с видеопотоком в форме захвата</t>
   </si>
   <si>
     <t>Проверить что захват на границе области отрабатывает</t>
   </si>
   <si>
-    <t>CIR-W0033</t>
-  </si>
-  <si>
     <t>Считывание документа с ИС, в открытой форме захвата</t>
   </si>
   <si>
     <t>Проверить что считывание документа с ИС не помешает работе формы захвата во время захвата</t>
   </si>
   <si>
-    <t>CIR-W0034</t>
-  </si>
-  <si>
     <t>Считывание документа без ИС, в открытой форме захвата</t>
   </si>
   <si>
     <t>Проверить что считывание документа без ИС не помешает работе формы захвата во время захвата</t>
   </si>
   <si>
-    <t>CIR-W0035</t>
-  </si>
-  <si>
     <t>Повторное считывание документа с открытой формой захвата во время захвата</t>
   </si>
   <si>
     <t>Проверить захват в форме захвата после повторного считывания документа</t>
   </si>
   <si>
-    <t>CIR-W0042</t>
-  </si>
-  <si>
     <t>Проверить захват кадр в последние секунды перед окончанием таймаута, в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0043</t>
-  </si>
-  <si>
-    <t>CIR-W0044</t>
-  </si>
-  <si>
-    <t>CIR-W0045</t>
-  </si>
-  <si>
     <t>Захват после таймаута в форме захвата</t>
   </si>
   <si>
@@ -354,12 +252,6 @@
     <t>Проверить после нажатия на кнопку «Стоп F6» и «Закрыть Esc» во время захвата, ничего не падает</t>
   </si>
   <si>
-    <t>CIR-W0051</t>
-  </si>
-  <si>
-    <t>CIR-W0052</t>
-  </si>
-  <si>
     <t>Проверить захват на расстоянии около двух метров от камеры</t>
   </si>
   <si>
@@ -369,15 +261,6 @@
     <t>Проверить захват на расстоянии более двух метров от камеры</t>
   </si>
   <si>
-    <t>CIR-W0021</t>
-  </si>
-  <si>
-    <t>CIR-W0022</t>
-  </si>
-  <si>
-    <t>CIR-W0023</t>
-  </si>
-  <si>
     <t>Проверить работу горячих клавиш в АРМ ОПК</t>
   </si>
   <si>
@@ -393,15 +276,6 @@
     <t>Проверка запуска захвата сочетанием клавиш Ctrl + F9 в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>CIR-W0024</t>
-  </si>
-  <si>
-    <t>CIR-W0025</t>
-  </si>
-  <si>
-    <t>CIR-W0026</t>
-  </si>
-  <si>
     <t>Отключение видеокамеры</t>
   </si>
   <si>
@@ -426,21 +300,6 @@
     <t>Проверить логи</t>
   </si>
   <si>
-    <t>CIR-W0036</t>
-  </si>
-  <si>
-    <t>CIR-W0037</t>
-  </si>
-  <si>
-    <t>CIR-W0038</t>
-  </si>
-  <si>
-    <t>CIR-W0039</t>
-  </si>
-  <si>
-    <t>CIR-W0040</t>
-  </si>
-  <si>
     <t>Создание логов «Контраст» при входе в «Система Каскад»</t>
   </si>
   <si>
@@ -465,21 +324,6 @@
     <t xml:space="preserve">Проверить наличие надписи «Конец» в логах «Контраст» </t>
   </si>
   <si>
-    <t>CIR-W0046</t>
-  </si>
-  <si>
-    <t>CIR-W0047</t>
-  </si>
-  <si>
-    <t>CIR-W0048</t>
-  </si>
-  <si>
-    <t>CIR-W0049</t>
-  </si>
-  <si>
-    <t>CIR-W0050</t>
-  </si>
-  <si>
     <t>Проверить верификацию</t>
   </si>
   <si>
@@ -510,24 +354,6 @@
     <t>Проверить верификацию после захвата в форме захвата</t>
   </si>
   <si>
-    <t>CIR-W0053</t>
-  </si>
-  <si>
-    <t>CIR-W0054</t>
-  </si>
-  <si>
-    <t>CIR-W0055</t>
-  </si>
-  <si>
-    <t>CIR-W0056</t>
-  </si>
-  <si>
-    <t>CIR-W0057</t>
-  </si>
-  <si>
-    <t>CIR-W0058</t>
-  </si>
-  <si>
     <t>Проверить работу камеры в разных ориентациях</t>
   </si>
   <si>
@@ -565,6 +391,183 @@
   </si>
   <si>
     <t>Проверить захват в форме захвата с повернутой камерой на 270 градусов по часовой стрелке</t>
+  </si>
+  <si>
+    <t>Проверить реинициализацию «Зритель-Каскад» при выходе из АРМ ОПК</t>
+  </si>
+  <si>
+    <t>не актуален</t>
+  </si>
+  <si>
+    <t>CIR-J0001</t>
+  </si>
+  <si>
+    <t>CIR-J0002</t>
+  </si>
+  <si>
+    <t>CIR-J0003</t>
+  </si>
+  <si>
+    <t>CIR-J0004</t>
+  </si>
+  <si>
+    <t>CIR-J0005</t>
+  </si>
+  <si>
+    <t>CIR-J0006</t>
+  </si>
+  <si>
+    <t>CIR-J0007</t>
+  </si>
+  <si>
+    <t>CIR-J0008</t>
+  </si>
+  <si>
+    <t>CIR-J0009</t>
+  </si>
+  <si>
+    <t>CIR-J0012</t>
+  </si>
+  <si>
+    <t>CIR-J0016</t>
+  </si>
+  <si>
+    <t>CIR-J0017</t>
+  </si>
+  <si>
+    <t>CIR-J0018</t>
+  </si>
+  <si>
+    <t>CIR-J0027</t>
+  </si>
+  <si>
+    <t>CIR-J0028</t>
+  </si>
+  <si>
+    <t>CIR-J0029</t>
+  </si>
+  <si>
+    <t>CIR-J0041</t>
+  </si>
+  <si>
+    <t>CIR-J0010</t>
+  </si>
+  <si>
+    <t>CIR-J0011</t>
+  </si>
+  <si>
+    <t>CIR-J0013</t>
+  </si>
+  <si>
+    <t>CIR-J0014</t>
+  </si>
+  <si>
+    <t>CIR-J0015</t>
+  </si>
+  <si>
+    <t>CIR-J0030</t>
+  </si>
+  <si>
+    <t>CIR-J0031</t>
+  </si>
+  <si>
+    <t>CIR-J0032</t>
+  </si>
+  <si>
+    <t>CIR-J0033</t>
+  </si>
+  <si>
+    <t>CIR-J0034</t>
+  </si>
+  <si>
+    <t>CIR-J0035</t>
+  </si>
+  <si>
+    <t>CIR-J0042</t>
+  </si>
+  <si>
+    <t>CIR-J0043</t>
+  </si>
+  <si>
+    <t>CIR-J0044</t>
+  </si>
+  <si>
+    <t>CIR-J0045</t>
+  </si>
+  <si>
+    <t>CIR-J0051</t>
+  </si>
+  <si>
+    <t>CIR-J0052</t>
+  </si>
+  <si>
+    <t>CIR-J0021</t>
+  </si>
+  <si>
+    <t>CIR-J0022</t>
+  </si>
+  <si>
+    <t>CIR-J0023</t>
+  </si>
+  <si>
+    <t>CIR-J0024</t>
+  </si>
+  <si>
+    <t>CIR-J0025</t>
+  </si>
+  <si>
+    <t>CIR-J0026</t>
+  </si>
+  <si>
+    <t>CIR-J0036</t>
+  </si>
+  <si>
+    <t>CIR-J0037</t>
+  </si>
+  <si>
+    <t>CIR-J0038</t>
+  </si>
+  <si>
+    <t>CIR-J0039</t>
+  </si>
+  <si>
+    <t>CIR-J0040</t>
+  </si>
+  <si>
+    <t>CIR-J0046</t>
+  </si>
+  <si>
+    <t>CIR-J0047</t>
+  </si>
+  <si>
+    <t>CIR-J0048</t>
+  </si>
+  <si>
+    <t>CIR-J0049</t>
+  </si>
+  <si>
+    <t>CIR-J0050</t>
+  </si>
+  <si>
+    <t>CIR-J0053</t>
+  </si>
+  <si>
+    <t>CIR-J0054</t>
+  </si>
+  <si>
+    <t>CIR-J0055</t>
+  </si>
+  <si>
+    <t>CIR-J0056</t>
+  </si>
+  <si>
+    <t>CIR-J0057</t>
+  </si>
+  <si>
+    <t>CIR-J0058</t>
+  </si>
+  <si>
+    <t>Работа «Зритель-контраст» в главной форме  АРМ ОПК</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -738,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,6 +875,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D156B66-8921-4E30-AB14-A0B6597CD9FC}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1219,7 @@
     <col min="9" max="9" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="23" t="s">
@@ -1245,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="23" t="s">
@@ -1254,42 +1272,44 @@
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="27"/>
+      <c r="B5" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="11"/>
@@ -1297,7 +1317,7 @@
     </row>
     <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
@@ -1308,14 +1328,14 @@
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="11"/>
@@ -1323,14 +1343,14 @@
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" s="14"/>
     </row>
@@ -1339,63 +1359,63 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>45</v>
+      <c r="A13" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>48</v>
+      <c r="A14" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="23" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="6"/>
@@ -1403,53 +1423,53 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="23" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="23" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="23" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="23" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E19" s="27"/>
       <c r="I19" s="6"/>
@@ -1459,18 +1479,18 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="24" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="37"/>
@@ -1483,75 +1503,75 @@
         <v>6</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="23" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="40" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="23" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="24" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="40" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1560,63 +1580,63 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="40" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="40" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="23" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="24" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="43" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E32" s="27"/>
     </row>
@@ -1625,24 +1645,24 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="40" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="23" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="E34" s="27"/>
     </row>
@@ -1651,24 +1671,24 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="23" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="23" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -1677,30 +1697,30 @@
         <v>15</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="40" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="23" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="8"/>
@@ -1712,11 +1732,11 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="23" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1725,30 +1745,30 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="23" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="23" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="36"/>
@@ -1756,46 +1776,46 @@
     </row>
     <row r="44" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="23" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="23" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="23" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -1804,53 +1824,53 @@
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="23" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="23" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="23" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="23" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -1859,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="23" t="s">
@@ -1869,7 +1889,7 @@
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -1878,40 +1898,40 @@
     </row>
     <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="23" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="23" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="23" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E56" s="19"/>
     </row>
@@ -1920,30 +1940,30 @@
         <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="23" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="23" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="8"/>
@@ -1952,79 +1972,79 @@
     </row>
     <row r="60" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="23" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="23" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="23" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="23" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="23" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2"/>
     </row>

--- a/Чек-лист для (web-камера + jetson).xlsx
+++ b/Чек-лист для (web-камера + jetson).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7E4991-8984-466F-91F8-FA9CD8351B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC096EB3-1259-45EF-9469-4F990222B524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{126295D2-B400-4284-97D2-093116D5AAB0}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Проверить деинициализацию «Зритель-Каскад» при выходе из «Система Каскад»</t>
   </si>
   <si>
-    <t>Проверка инициализации</t>
-  </si>
-  <si>
     <t>ID тест кейса</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Проверить захват кадр в последние секунды перед окончанием таймаута, в главной форме АРМ ОПК</t>
   </si>
   <si>
-    <t>Проверить форму захвата</t>
-  </si>
-  <si>
     <t>Вызов формы захвата без захваченного кадра</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>Проверить что появляется окно с описанием ошибки, когда отключена камера, при запуске ContrastApp</t>
   </si>
   <si>
-    <t>Вкладка сьемка</t>
-  </si>
-  <si>
     <t>Захват по нажатию кнопки «Старт [F5]»</t>
   </si>
   <si>
@@ -675,9 +666,6 @@
     <t>Проверить, что по истечению 4 секунд, без пассажира в поле зрения видеокамеры, таймаут отработает и в рабочей области будет пустой кадр, после нажатия на кнопку «Автозахват [F7]»</t>
   </si>
   <si>
-    <t>Форма захвата ContrastApp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверить вызов формы захвата с набором захваченных кадров </t>
   </si>
   <si>
@@ -835,6 +823,18 @@
   </si>
   <si>
     <t>CIR-J0094</t>
+  </si>
+  <si>
+    <t>Проверить вкладку съемка в тестовом приложении</t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в тестовом приложении</t>
+  </si>
+  <si>
+    <t>Проверка инициализации в Каскаде</t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в Каскаде</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1475,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D156B66-8921-4E30-AB14-A0B6597CD9FC}">
   <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,13 +1489,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
@@ -1510,519 +1507,519 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="48"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="49"/>
+        <v>119</v>
+      </c>
+      <c r="C3" s="48"/>
       <c r="D3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="48"/>
+        <v>176</v>
+      </c>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>120</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="48"/>
+        <v>177</v>
+      </c>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="49"/>
+        <v>232</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="48"/>
+        <v>178</v>
+      </c>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="49"/>
+        <v>179</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="48"/>
       <c r="D7" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="48"/>
+        <v>180</v>
+      </c>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="49"/>
+        <v>121</v>
+      </c>
+      <c r="C8" s="48"/>
       <c r="D8" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="48"/>
+        <v>182</v>
+      </c>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="C9" s="48"/>
       <c r="D9" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="48"/>
+        <v>184</v>
+      </c>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="49"/>
+        <v>123</v>
+      </c>
+      <c r="C10" s="48"/>
       <c r="D10" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="48"/>
+        <v>186</v>
+      </c>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="49"/>
+        <v>124</v>
+      </c>
+      <c r="C11" s="48"/>
       <c r="D11" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="48"/>
+        <v>188</v>
+      </c>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="C12" s="48"/>
       <c r="D12" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="48"/>
+        <v>190</v>
+      </c>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="49"/>
+        <v>134</v>
+      </c>
+      <c r="C13" s="48"/>
       <c r="D13" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="48"/>
+        <v>192</v>
+      </c>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="49"/>
+        <v>135</v>
+      </c>
+      <c r="C14" s="48"/>
       <c r="D14" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="48"/>
+        <v>194</v>
+      </c>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="49"/>
+        <v>126</v>
+      </c>
+      <c r="C15" s="48"/>
       <c r="D15" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="48"/>
+        <v>196</v>
+      </c>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="49"/>
+        <v>136</v>
+      </c>
+      <c r="C16" s="48"/>
       <c r="D16" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="48"/>
+        <v>198</v>
+      </c>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="49"/>
+        <v>137</v>
+      </c>
+      <c r="C17" s="48"/>
       <c r="D17" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="48"/>
+        <v>200</v>
+      </c>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="49"/>
+        <v>138</v>
+      </c>
+      <c r="C18" s="48"/>
       <c r="D18" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="48"/>
+        <v>202</v>
+      </c>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="C19" s="48"/>
       <c r="D19" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="48"/>
+        <v>204</v>
+      </c>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="49"/>
+        <v>128</v>
+      </c>
+      <c r="C20" s="48"/>
       <c r="D20" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="48"/>
+        <v>206</v>
+      </c>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="49"/>
+        <v>129</v>
+      </c>
+      <c r="C21" s="48"/>
       <c r="D21" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="48"/>
+        <v>208</v>
+      </c>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="49"/>
+        <v>234</v>
+      </c>
+      <c r="C22" s="48"/>
       <c r="D22" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="48"/>
+        <v>210</v>
+      </c>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="49"/>
+        <v>235</v>
+      </c>
+      <c r="C23" s="48"/>
       <c r="D23" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
+        <v>212</v>
+      </c>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="49"/>
+        <v>151</v>
+      </c>
+      <c r="C25" s="48"/>
       <c r="D25" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="48"/>
+        <v>213</v>
+      </c>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="49"/>
+        <v>152</v>
+      </c>
+      <c r="C26" s="48"/>
       <c r="D26" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="48"/>
+        <v>214</v>
+      </c>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="C27" s="48"/>
       <c r="D27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="48"/>
+        <v>46</v>
+      </c>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="49"/>
+        <v>154</v>
+      </c>
+      <c r="C28" s="48"/>
       <c r="D28" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="48"/>
+        <v>216</v>
+      </c>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="49"/>
+        <v>155</v>
+      </c>
+      <c r="C29" s="48"/>
       <c r="D29" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="48"/>
+        <v>206</v>
+      </c>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="49"/>
+        <v>156</v>
+      </c>
+      <c r="C30" s="48"/>
       <c r="D30" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="48"/>
+        <v>219</v>
+      </c>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="48"/>
       <c r="D31" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="48"/>
+        <v>221</v>
+      </c>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="49"/>
+        <v>131</v>
+      </c>
+      <c r="C32" s="48"/>
       <c r="D32" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="48"/>
+        <v>223</v>
+      </c>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="49"/>
+        <v>132</v>
+      </c>
+      <c r="C33" s="48"/>
       <c r="D33" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="48"/>
+        <v>225</v>
+      </c>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="48"/>
+        <v>139</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="47"/>
     </row>
     <row r="35" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="49"/>
+        <v>140</v>
+      </c>
+      <c r="C35" s="48"/>
       <c r="D35" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="48"/>
+        <v>228</v>
+      </c>
+      <c r="E35" s="47"/>
     </row>
     <row r="36" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="C36" s="48"/>
       <c r="D36" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="48"/>
+        <v>229</v>
+      </c>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="C37" s="48"/>
       <c r="D37" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="48"/>
-    </row>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
+        <v>231</v>
+      </c>
+      <c r="E37" s="47"/>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="25"/>
+      <c r="B39" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="24"/>
       <c r="D39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="26"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>146</v>
+      <c r="B40" s="25" t="s">
+        <v>144</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>159</v>
+        <v>21</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="E41" s="29"/>
       <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="10"/>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="43" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7"/>
@@ -2041,14 +2038,14 @@
     </row>
     <row r="44" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="10"/>
@@ -2056,14 +2053,14 @@
     </row>
     <row r="45" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="13"/>
     </row>
@@ -2072,63 +2069,63 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="32"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>38</v>
+      <c r="A50" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50" s="5"/>
@@ -2136,55 +2133,55 @@
     </row>
     <row r="51" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="E54" s="25"/>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,22 +2189,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="31"/>
+        <v>237</v>
+      </c>
+      <c r="C55" s="30"/>
       <c r="D55" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="2"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="34"/>
+    <row r="56" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="9"/>
       <c r="I56" s="5"/>
     </row>
@@ -2215,76 +2212,76 @@
       <c r="A57" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="36" t="s">
-        <v>147</v>
+      <c r="B57" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="38" t="s">
-        <v>53</v>
+      <c r="D59" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="C60" s="36"/>
       <c r="D60" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="38" t="s">
-        <v>47</v>
+      <c r="D62" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -2293,147 +2290,147 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="26"/>
+        <v>239</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="38" t="s">
+      <c r="B65" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>246</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="37" t="s">
         <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="38" t="s">
-        <v>68</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E69" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C72" s="14"/>
-      <c r="D72" s="38" t="s">
-        <v>74</v>
+      <c r="D72" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="7"/>
@@ -2445,11 +2442,11 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
     </row>
@@ -2458,77 +2455,77 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>82</v>
+      <c r="A78" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C78" s="8"/>
-      <c r="D78" s="34"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="18"/>
     </row>
     <row r="79" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E79" s="18"/>
     </row>
     <row r="80" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E81" s="18"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="7"/>
@@ -2537,53 +2534,53 @@
     </row>
     <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E83" s="18"/>
     </row>
     <row r="84" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2"/>
     </row>
@@ -2592,7 +2589,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="22" t="s">
@@ -2602,7 +2599,7 @@
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="7"/>
@@ -2611,40 +2608,40 @@
     </row>
     <row r="89" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E91" s="18"/>
     </row>
@@ -2653,30 +2650,30 @@
         <v>14</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E92" s="18"/>
     </row>
     <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E93" s="18"/>
     </row>
     <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="7"/>
@@ -2685,240 +2682,240 @@
     </row>
     <row r="95" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E95" s="18"/>
     </row>
     <row r="96" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="18"/>
     </row>
     <row r="97" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="18"/>
     </row>
     <row r="98" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E98" s="18"/>
     </row>
     <row r="99" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="42"/>
+      <c r="C101" s="41"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="42"/>
+      <c r="C102" s="41"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="42"/>
+      <c r="C103" s="41"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="42"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="42"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="5"/>
       <c r="E105" s="10"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
+      <c r="A106" s="42"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="42"/>
+      <c r="C106" s="41"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="42"/>
+      <c r="C107" s="41"/>
       <c r="D107" s="5"/>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="42"/>
+      <c r="C108" s="41"/>
       <c r="D108" s="5"/>
       <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="42"/>
+      <c r="C109" s="41"/>
       <c r="D109" s="5"/>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="42"/>
+      <c r="C110" s="41"/>
       <c r="D110" s="5"/>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="43"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="42"/>
+      <c r="C111" s="41"/>
       <c r="D111" s="10"/>
       <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="42"/>
+      <c r="C112" s="41"/>
       <c r="D112" s="5"/>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="42"/>
+      <c r="C113" s="41"/>
       <c r="D113" s="5"/>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="42"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="5"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="42"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="5"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="42"/>
+      <c r="C116" s="41"/>
       <c r="D116" s="5"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="42"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="5"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="42"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="5"/>
       <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="42"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="5"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="42"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="5"/>
       <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="42"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="5"/>
       <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="42"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="5"/>
       <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="42"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="5"/>
       <c r="E123" s="10"/>
     </row>
